--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="67">
   <si>
     <t>A001</t>
   </si>
@@ -189,6 +189,42 @@
   </si>
   <si>
     <t>46</t>
+  </si>
+  <si>
+    <t>Q014</t>
+  </si>
+  <si>
+    <t>A $$$ 283</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Obese</t>
+  </si>
+  <si>
+    <t>1st Feb 1998</t>
+  </si>
+  <si>
+    <t>Ma le</t>
+  </si>
+  <si>
+    <t>2$0</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   444</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>A222</t>
+  </si>
+  <si>
+    <t>2nd January 1998</t>
   </si>
 </sst>
 </file>
@@ -514,9 +550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1127,7 +1165,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
@@ -1146,6 +1184,75 @@
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
